--- a/uploads/allowlist.xlsx
+++ b/uploads/allowlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sechibueze\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A81A4121-A164-4C70-BCBC-294537F7C9F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECA420B-C4A9-4ECB-85B8-E46BC2E0F90B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3525" yWindow="2190" windowWidth="15375" windowHeight="8325" xr2:uid="{757861FC-3EC6-4B92-8201-F47D9BEE977B}"/>
   </bookViews>
@@ -48,6 +48,15 @@
     <t>Tim</t>
   </si>
   <si>
+    <t>josh@josh.com</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Oyinbo</t>
+  </si>
+  <si>
     <t>phone</t>
   </si>
   <si>
@@ -63,34 +72,25 @@
     <t>FTCHR004</t>
   </si>
   <si>
+    <t>sam@sam.com</t>
+  </si>
+  <si>
+    <t>tim@tim.com</t>
+  </si>
+  <si>
+    <t>tayo@tayo.com</t>
+  </si>
+  <si>
+    <t>Tayo</t>
+  </si>
+  <si>
+    <t>oduns</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
     <t>access</t>
-  </si>
-  <si>
-    <t>sechibueze@gmail.com</t>
-  </si>
-  <si>
-    <t>wizkevinaaina@gmail.com</t>
-  </si>
-  <si>
-    <t>lightworthng@gmail.com</t>
-  </si>
-  <si>
-    <t>Light</t>
-  </si>
-  <si>
-    <t>Worth</t>
-  </si>
-  <si>
-    <t>chelson4real@gmail.com</t>
-  </si>
-  <si>
-    <t>Chelson</t>
-  </si>
-  <si>
-    <t>Real</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,13 +475,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -490,15 +490,15 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>123456</v>
@@ -510,15 +510,15 @@
         <v>4</v>
       </c>
       <c r="F2" s="2">
-        <v>8136363673</v>
+        <v>8123456789</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>123456</v>
@@ -530,47 +530,47 @@
         <v>6</v>
       </c>
       <c r="F3" s="2">
-        <v>9033536902</v>
+        <v>7056848798</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>123456</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2">
-        <v>9060402887</v>
+        <v>23145678923</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>123456</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2">
-        <v>8035693820</v>
+        <v>23145978923</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/allowlist.xlsx
+++ b/uploads/allowlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sechibueze\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sechibueze\Documents\FTC Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECA420B-C4A9-4ECB-85B8-E46BC2E0F90B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D66D10-1CD2-4158-A103-69A73BCE73FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="2190" windowWidth="15375" windowHeight="8325" xr2:uid="{757861FC-3EC6-4B92-8201-F47D9BEE977B}"/>
+    <workbookView xWindow="3765" yWindow="1695" windowWidth="15375" windowHeight="8325" xr2:uid="{757861FC-3EC6-4B92-8201-F47D9BEE977B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Email</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>firstname</t>
   </si>
@@ -48,67 +45,56 @@
     <t>Tim</t>
   </si>
   <si>
-    <t>josh@josh.com</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>Oyinbo</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>FTCHR001</t>
   </si>
   <si>
     <t>FTCHR002</t>
   </si>
   <si>
-    <t>FTCHR003</t>
-  </si>
-  <si>
     <t>FTCHR004</t>
   </si>
   <si>
-    <t>sam@sam.com</t>
-  </si>
-  <si>
-    <t>tim@tim.com</t>
-  </si>
-  <si>
-    <t>tayo@tayo.com</t>
-  </si>
-  <si>
     <t>Tayo</t>
   </si>
   <si>
     <t>oduns</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>access</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>oshodi</t>
+  </si>
+  <si>
+    <t>iyana</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>FTCHR4567</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>tokyo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,17 +123,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,128 +442,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7094F8E-0E71-4B64-98F6-DD50FC88CEE6}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="3" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2">
-        <v>8123456789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2">
-        <v>7056848798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2">
-        <v>23145678923</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1">
-        <v>123456</v>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="2">
-        <v>23145978923</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C93E244F-C959-4211-864E-729BBD427CEB}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{F72A4A4C-6F0A-4421-A054-2E6ACB8796AE}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{74A05F4F-288E-4855-8405-79D4C1A10442}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{5956D635-BC7C-44BF-8838-574C9E4E5474}"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>